--- a/Resultados/resultados_1.xlsx
+++ b/Resultados/resultados_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shali\Desktop\FACULTAD\Econometria\Trabajo práctico\econometria2024\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B884CC-5AF1-4E7F-BF56-F91C2D9A07C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3401B54-9D13-43D9-B037-6087E7548AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="21585" windowHeight="13680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="488">
   <si>
     <t>codigo</t>
   </si>
@@ -1477,9 +1477,6 @@
     <t>norway</t>
   </si>
   <si>
-    <t>Rank1</t>
-  </si>
-  <si>
     <t>Rank2</t>
   </si>
   <si>
@@ -1496,6 +1493,15 @@
   </si>
   <si>
     <t>3)+/-</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -1534,17 +1540,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1561,12 +1573,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1583,23 +1598,22 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A2C02DE-EE03-44DD-90F9-6D0EF4B4AC56}" name="Tabla1" displayName="Tabla1" ref="A1:I152" totalsRowShown="0">
-  <autoFilter ref="A1:I152" xr:uid="{5A2C02DE-EE03-44DD-90F9-6D0EF4B4AC56}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I152">
-    <sortCondition ref="F1:F152"/>
+    <sortCondition descending="1" ref="C1:C152"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="8" xr3:uid="{BFB3AE65-0AAD-49A1-B965-720295D6811F}" name="Rank1"/>
+    <tableColumn id="8" xr3:uid="{BFB3AE65-0AAD-49A1-B965-720295D6811F}" name="Rank" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{BC900A70-1EE3-4ADC-A363-E3860763F064}" name="Pais"/>
-    <tableColumn id="4" xr3:uid="{BBF06864-8FFD-4CF9-B357-00EB01F9ABEB}" name="IDH" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F303FC8E-3620-4081-A306-7BF38C73DC22}" name="IDH2" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B4FB6DD5-D5AC-4BFF-9403-7B6D0502B460}" name="IDH3" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{5967E721-9A5A-4CD3-AF07-B1DFCF513907}" name="Rank2" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{7A474A85-F8B6-4B87-8779-C588C74E090C}" name="2)+/-" dataDxfId="2">
-      <calculatedColumnFormula>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{BBF06864-8FFD-4CF9-B357-00EB01F9ABEB}" name="IDH" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F303FC8E-3620-4081-A306-7BF38C73DC22}" name="IDH2" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B4FB6DD5-D5AC-4BFF-9403-7B6D0502B460}" name="IDH3" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{5967E721-9A5A-4CD3-AF07-B1DFCF513907}" name="Rank2" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{7A474A85-F8B6-4B87-8779-C588C74E090C}" name="2)+/-" dataDxfId="3">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A41548A-4B50-409F-9C94-02A2052FF704}" name="Rank3" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{AD77FF69-966D-4D9E-8661-5F5D3AB756F7}" name="3)+/-" dataDxfId="0">
-      <calculatedColumnFormula>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{5A41548A-4B50-409F-9C94-02A2052FF704}" name="Rank3" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{AD77FF69-966D-4D9E-8661-5F5D3AB756F7}" name="3)+/-" dataDxfId="1">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14863,16 +14877,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE07D-B89C-4A07-883C-6514B50FE974}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.53125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.53125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.9296875" style="2" bestFit="1" customWidth="1"/>
@@ -14881,4718 +14895,4718 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>479</v>
+      <c r="A1" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>485</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.96140855718983298</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.95290749035782296</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.96446851690549895</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.95993959766390902</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.94903894842064596</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.95176742226017097</v>
+      </c>
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G3" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="3">
         <v>0.95824184210990704</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="3">
         <v>0.95677927073671598</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E4" s="3">
         <v>0.95255658031041102</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G4" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I4" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.96140855718983298</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.95290749035782296</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.96446851690549895</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.95993959766390902</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.94903894842064596</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.95176742226017097</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-2</v>
-      </c>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>456</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.95090849629030505</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.94314992554603205</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.94236145597434195</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
       </c>
       <c r="I5" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.94709713422027997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.93941151328256001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.95420548551958695</v>
+      </c>
+      <c r="F6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>465</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="3">
         <v>0.945856512166242</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="3">
         <v>0.94247412713677503</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="3">
         <v>0.94928148665692302</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G7" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I7" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.94184681505444201</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.93305918701218604</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.94216036127282798</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.94131151864589202</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.93594729769385698</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.94917730297993697</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.94055371072576399</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.922550223227106</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.93658895650513596</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.93866903701419102</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.932619974298177</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.94902692601811101</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.93646252728917301</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.92886318020842895</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.93655140392357095</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.93345352393704395</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.91896481894300697</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.92171127737894398</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.93294283760238705</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.90145339921123602</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.89090638883672901</v>
+      </c>
+      <c r="F14" s="2">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.93281675046159096</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.90975729582051101</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.59814488146214295</v>
+      </c>
+      <c r="F15" s="2">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>93</v>
+      </c>
+      <c r="I15" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.93225661541760196</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.922508891602554</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.93893757493271401</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.94709713422027997</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.93941151328256001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.95420548551958695</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H7" s="2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.92503885358151405</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.91762374261670299</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.93283536073834805</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>2</v>
       </c>
-      <c r="I7" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="H17" s="2">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.94131151864589202</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.93594729769385698</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.94917730297993697</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.92152710869658006</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.91549000083334897</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.89332549154489205</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.94184681505444201</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.93305918701218604</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.94216036127282798</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>9</v>
-      </c>
-      <c r="I9" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.93866903701419102</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.932619974298177</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.94902692601811101</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>444</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.93646252728917301</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.92886318020842895</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.93655140392357095</v>
-      </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.94055371072576399</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.922550223227106</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.93658895650513596</v>
-      </c>
-      <c r="F12" s="2">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>11</v>
-      </c>
-      <c r="I12" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.93225661541760196</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.922508891602554</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.93893757493271401</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>482</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.93345352393704395</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.91896481894300697</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.92171127737894398</v>
-      </c>
-      <c r="F14" s="2">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.92503885358151405</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.91762374261670299</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.93283536073834805</v>
-      </c>
-      <c r="F15" s="2">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.92152710869658006</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.91549000083334897</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.89332549154489205</v>
-      </c>
-      <c r="F16" s="2">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <v>24</v>
       </c>
-      <c r="I16" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I18" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.91803122828257799</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.91344920208038105</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.92001575372479105</v>
-      </c>
-      <c r="F17" s="2">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>438</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.91783809261346105</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.91241069038149802</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.92408215169431596</v>
-      </c>
-      <c r="F18" s="2">
-        <v>17</v>
-      </c>
-      <c r="G18" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>14</v>
-      </c>
-      <c r="I18" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>6</v>
-      </c>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>0.91961986301134102</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>0.91150076512933598</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>0.91609078652429898</v>
       </c>
       <c r="F19" s="2">
         <v>18</v>
       </c>
       <c r="G19" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H19" s="2">
         <v>17</v>
       </c>
       <c r="I19" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.91803122828257799</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.91344920208038105</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.92001575372479105</v>
+      </c>
+      <c r="F20" s="2">
+        <v>16</v>
+      </c>
+      <c r="G20" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.91783809261346105</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.91241069038149802</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.92408215169431596</v>
+      </c>
+      <c r="F21" s="2">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.93281675046159096</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.90975729582051101</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.59814488146214295</v>
-      </c>
-      <c r="F20" s="2">
-        <v>19</v>
-      </c>
-      <c r="G20" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>93</v>
-      </c>
-      <c r="I20" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>426</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.90078118017881204</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.901773260569803</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.91118167819543205</v>
-      </c>
-      <c r="F21" s="2">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>18</v>
-      </c>
       <c r="I21" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>7</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>13</v>
+      <c r="A22" s="2">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>405</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.93294283760238705</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.90145339921123602</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.89090638883672901</v>
+        <v>384</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.90898097017478297</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.89736569562272195</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.86646444872713302</v>
       </c>
       <c r="F22" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-8</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
       </c>
       <c r="H22" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I22" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-12</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>417</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>0.90541927898864205</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>0.89886618115186301</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>0.89914950188259901</v>
       </c>
       <c r="F23" s="2">
         <v>22</v>
       </c>
       <c r="G23" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H23" s="2">
         <v>21</v>
       </c>
       <c r="I23" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>21</v>
+      <c r="A24" s="2">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.90898097017478297</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.89736569562272195</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.86646444872713302</v>
+        <v>414</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.90492496419045698</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.89263113902312996</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.89694202501745002</v>
       </c>
       <c r="F24" s="2">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.90390246328863899</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.89068890706711101</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.90276870589424596</v>
+      </c>
+      <c r="F25" s="2">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.90078118017881204</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.901773260569803</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.91118167819543205</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.898676204310216</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.88432171717138297</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.88573788244471896</v>
+      </c>
+      <c r="F27" s="2">
+        <v>28</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>26</v>
+      </c>
+      <c r="I27" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.89556281957865602</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.89129239978729902</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.89593293233693805</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
         <v>23</v>
       </c>
-      <c r="G24" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H24" s="2">
-        <v>32</v>
-      </c>
-      <c r="I24" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.90492496419045698</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.89263113902312996</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.89694202501745002</v>
-      </c>
-      <c r="F25" s="2">
-        <v>24</v>
-      </c>
-      <c r="G25" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I28" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.89335554200596101</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.88997555954729002</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.902226384968983</v>
+      </c>
+      <c r="F29" s="2">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>411</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.89556281957865602</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.89129239978729902</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.89593293233693805</v>
-      </c>
-      <c r="F26" s="2">
-        <v>25</v>
-      </c>
-      <c r="G26" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>23</v>
-      </c>
-      <c r="I26" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>423</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.90390246328863899</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.89068890706711101</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.90276870589424596</v>
-      </c>
-      <c r="F27" s="2">
-        <v>26</v>
-      </c>
-      <c r="G27" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>19</v>
-      </c>
-      <c r="I27" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>420</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.89335554200596101</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.88997555954729002</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.902226384968983</v>
-      </c>
-      <c r="F28" s="2">
-        <v>27</v>
-      </c>
-      <c r="G28" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="H29" s="2">
         <v>20</v>
       </c>
-      <c r="I28" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I29" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>402</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.898676204310216</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.88432171717138297</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.88573788244471896</v>
-      </c>
-      <c r="F29" s="2">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H29" s="2">
-        <v>26</v>
-      </c>
-      <c r="I29" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>393</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>0.88984579246691697</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>0.88079461690440497</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>0.87808347070457404</v>
       </c>
       <c r="F30" s="2">
         <v>29</v>
       </c>
       <c r="G30" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H30" s="2">
         <v>29</v>
       </c>
       <c r="I30" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>399</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.88580604967476695</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.87693172109792406</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.88508439370169301</v>
+      </c>
+      <c r="F31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="G31" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>27</v>
+      </c>
+      <c r="I31" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="3">
         <v>0.87991666788714396</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="3">
         <v>0.87863945904628005</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="3">
         <v>0.86881607741080302</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>30</v>
       </c>
-      <c r="G31" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G32" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>1</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="2">
         <v>31</v>
       </c>
-      <c r="I31" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I32" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.87311951931887699</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.86495237001810998</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.86621152531926104</v>
+      </c>
+      <c r="F33" s="2">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>33</v>
+      </c>
+      <c r="I33" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.86552534726766395</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.85938981317390795</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.85703267988758602</v>
+      </c>
+      <c r="F34" s="2">
+        <v>34</v>
+      </c>
+      <c r="G34" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>35</v>
+      </c>
+      <c r="I34" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.86419196248351604</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.85461035411641895</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.87982018404238305</v>
+      </c>
+      <c r="F35" s="2">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>28</v>
+      </c>
+      <c r="I35" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.86279563634920697</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.86557894915660105</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.86916190363243695</v>
+      </c>
+      <c r="F36" s="2">
+        <v>32</v>
+      </c>
+      <c r="G36" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.88580604967476695</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.87693172109792406</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.88508439370169301</v>
-      </c>
-      <c r="F32" s="2">
-        <v>31</v>
-      </c>
-      <c r="G32" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="I36" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.85941950925590005</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.83796064071890797</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.86238199078255895</v>
+      </c>
+      <c r="F37" s="2">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>-1</v>
       </c>
-      <c r="H32" s="2">
-        <v>27</v>
-      </c>
-      <c r="I32" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>390</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.86279563634920697</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.86557894915660105</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.86916190363243695</v>
-      </c>
-      <c r="F33" s="2">
-        <v>32</v>
-      </c>
-      <c r="G33" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H33" s="2">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.87311951931887699</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.86495237001810998</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.86621152531926104</v>
-      </c>
-      <c r="F34" s="2">
-        <v>33</v>
-      </c>
-      <c r="G34" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>33</v>
-      </c>
-      <c r="I34" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>375</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.86552534726766395</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.85938981317390795</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.85703267988758602</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="H37" s="2">
         <v>34</v>
       </c>
-      <c r="G35" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>35</v>
-      </c>
-      <c r="I35" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>396</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.86419196248351604</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.85461035411641895</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.87982018404238305</v>
-      </c>
-      <c r="F36" s="2">
-        <v>35</v>
-      </c>
-      <c r="G36" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H36" s="2">
-        <v>28</v>
-      </c>
-      <c r="I36" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="I37" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>357</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="3">
         <v>0.85361086986433199</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="3">
         <v>0.85036737827474096</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="3">
         <v>0.80998962030294697</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="2">
         <v>36</v>
       </c>
-      <c r="G37" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G38" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>1</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H38" s="2">
         <v>41</v>
       </c>
-      <c r="I37" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I38" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>378</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.85941950925590005</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.83796064071890797</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.86238199078255895</v>
-      </c>
-      <c r="F38" s="2">
-        <v>37</v>
-      </c>
-      <c r="G38" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>34</v>
-      </c>
-      <c r="I38" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>2</v>
-      </c>
-    </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>369</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>0.85315977839551305</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>0.83179468804404899</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>0.83383847109023601</v>
       </c>
       <c r="F39" s="2">
         <v>38</v>
       </c>
       <c r="G39" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H39" s="2">
         <v>37</v>
       </c>
       <c r="I39" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.84173970685019806</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.82624654607060399</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.646655039163192</v>
+      </c>
+      <c r="F40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="G40" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>81</v>
+      </c>
+      <c r="I40" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>345</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="3">
         <v>0.84108016451772705</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="3">
         <v>0.82787632728238003</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="3">
         <v>0.77929598264549005</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="2">
         <v>39</v>
       </c>
-      <c r="G40" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G41" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>1</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H41" s="2">
         <v>45</v>
       </c>
-      <c r="I40" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I41" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.84173970685019806</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.82624654607060399</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.646655039163192</v>
-      </c>
-      <c r="F41" s="2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.83875840623134701</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.82415362453013696</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.57844707404166495</v>
+      </c>
+      <c r="F42" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>98</v>
+      </c>
+      <c r="I42" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.83395390813875403</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.82436467726957796</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.82074980028258604</v>
+      </c>
+      <c r="F43" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.81999752537609105</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.80112470522813795</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.81067151847990904</v>
+      </c>
+      <c r="F44" s="2">
+        <v>48</v>
+      </c>
+      <c r="G44" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-5</v>
+      </c>
+      <c r="H44" s="2">
         <v>40</v>
       </c>
-      <c r="G41" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>81</v>
-      </c>
-      <c r="I41" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.83395390813875403</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.82436467726957796</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.82074980028258604</v>
-      </c>
-      <c r="F42" s="2">
-        <v>41</v>
-      </c>
-      <c r="G42" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>38</v>
-      </c>
-      <c r="I42" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.83875840623134701</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.82415362453013696</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.57844707404166495</v>
-      </c>
-      <c r="F43" s="2">
-        <v>42</v>
-      </c>
-      <c r="G43" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>98</v>
-      </c>
-      <c r="I43" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.80963156586093699</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.81924365308713798</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.58974665231978596</v>
-      </c>
-      <c r="F44" s="2">
-        <v>43</v>
-      </c>
-      <c r="G44" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>6</v>
-      </c>
-      <c r="H44" s="2">
-        <v>95</v>
-      </c>
       <c r="I44" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-46</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>50</v>
+      <c r="A45" s="2">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.80952421215899895</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.81254245237003897</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.56503187160309998</v>
+        <v>372</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.81790761122876499</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.80220741470280299</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.84337655278870305</v>
       </c>
       <c r="F45" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G45" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>6</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
       </c>
       <c r="H45" s="2">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="I45" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-52</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>0.81615720078890996</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>0.80572312221950904</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="3">
         <v>0.75766025809508597</v>
       </c>
       <c r="F46" s="2">
         <v>45</v>
       </c>
       <c r="G46" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H46" s="2">
         <v>51</v>
       </c>
       <c r="I46" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-6</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.81289547256970396</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.80191360328232197</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.80143477376259098</v>
+      </c>
+      <c r="F47" s="2">
+        <v>47</v>
+      </c>
+      <c r="G47" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>43</v>
+      </c>
+      <c r="I47" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.81192173756001096</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.80019551165115499</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.76544816096906199</v>
+      </c>
+      <c r="F48" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>47</v>
+      </c>
+      <c r="I48" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.81107211433576698</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.79045566275422097</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.81878237281764099</v>
+      </c>
+      <c r="F49" s="2">
+        <v>52</v>
+      </c>
+      <c r="G49" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-4</v>
+      </c>
+      <c r="H49" s="2">
+        <v>39</v>
+      </c>
+      <c r="I49" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.80963156586093699</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.81924365308713798</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.58974665231978596</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43</v>
+      </c>
+      <c r="G50" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>6</v>
+      </c>
+      <c r="H50" s="2">
+        <v>95</v>
+      </c>
+      <c r="I50" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.80952421215899895</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.81254245237003897</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.56503187160309998</v>
+      </c>
+      <c r="F51" s="2">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
-        <v>372</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.81790761122876499</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.80220741470280299</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.84337655278870305</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="G51" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>6</v>
+      </c>
+      <c r="H51" s="2">
+        <v>102</v>
+      </c>
+      <c r="I51" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.80810777903942399</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.79630460588132801</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.77379159484030102</v>
+      </c>
+      <c r="F52" s="2">
+        <v>50</v>
+      </c>
+      <c r="G52" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
         <v>46</v>
       </c>
-      <c r="G47" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H47" s="2">
-        <v>36</v>
-      </c>
-      <c r="I47" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>351</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.81289547256970396</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.80191360328232197</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.80143477376259098</v>
-      </c>
-      <c r="F48" s="2">
-        <v>47</v>
-      </c>
-      <c r="G48" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>43</v>
-      </c>
-      <c r="I48" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
-        <v>360</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.81999752537609105</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.80112470522813795</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.81067151847990904</v>
-      </c>
-      <c r="F49" s="2">
-        <v>48</v>
-      </c>
-      <c r="G49" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-5</v>
-      </c>
-      <c r="H49" s="2">
-        <v>40</v>
-      </c>
-      <c r="I49" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>339</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.81192173756001096</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.80019551165115499</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.76544816096906199</v>
-      </c>
-      <c r="F50" s="2">
-        <v>49</v>
-      </c>
-      <c r="G50" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H50" s="2">
-        <v>47</v>
-      </c>
-      <c r="I50" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>342</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.80810777903942399</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.79630460588132801</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.77379159484030102</v>
-      </c>
-      <c r="F51" s="2">
-        <v>50</v>
-      </c>
-      <c r="G51" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H51" s="2">
-        <v>46</v>
-      </c>
-      <c r="I51" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I52" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.79983302064449802</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.790616946978693</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.76138061900950105</v>
-      </c>
-      <c r="F52" s="2">
-        <v>51</v>
-      </c>
-      <c r="G52" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>4</v>
-      </c>
-      <c r="H52" s="2">
-        <v>49</v>
-      </c>
-      <c r="I52" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>6</v>
-      </c>
-    </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>48</v>
+      <c r="A53" s="2">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>363</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.81107211433576698</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.79045566275422097</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.81878237281764099</v>
+        <v>354</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.80559654771583999</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.78454202972190201</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.80967301025129101</v>
       </c>
       <c r="F53" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G53" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>-4</v>
       </c>
       <c r="H53" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I53" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>9</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>279</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>0.80478050275664204</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>0.78741676091935797</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="3">
         <v>0.709829962143121</v>
       </c>
       <c r="F54" s="2">
         <v>53</v>
       </c>
       <c r="G54" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H54" s="2">
         <v>67</v>
       </c>
       <c r="I54" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.801374769166731</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.78648014366308105</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.61808205607095201</v>
+      </c>
+      <c r="F55" s="2">
+        <v>55</v>
+      </c>
+      <c r="G55" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>90</v>
+      </c>
+      <c r="I55" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>333</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.79983302064449802</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.790616946978693</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.76138061900950105</v>
+      </c>
+      <c r="F56" s="2">
+        <v>51</v>
+      </c>
+      <c r="G56" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>4</v>
+      </c>
+      <c r="H56" s="2">
+        <v>49</v>
+      </c>
+      <c r="I56" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.790385759411391</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.76136882377220005</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.79166932728011497</v>
+      </c>
+      <c r="F57" s="2">
+        <v>66</v>
+      </c>
+      <c r="G57" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-10</v>
+      </c>
+      <c r="H57" s="2">
+        <v>44</v>
+      </c>
+      <c r="I57" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>273</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C58" s="3">
         <v>0.788707523430899</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D58" s="3">
         <v>0.78720284910861205</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E58" s="3">
         <v>0.70624849762310704</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F58" s="2">
         <v>54</v>
       </c>
-      <c r="G55" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G58" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>3</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H58" s="2">
         <v>69</v>
       </c>
-      <c r="I55" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I58" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.801374769166731</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.78648014366308105</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.61808205607095201</v>
-      </c>
-      <c r="F56" s="2">
-        <v>55</v>
-      </c>
-      <c r="G56" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H56" s="2">
-        <v>90</v>
-      </c>
-      <c r="I56" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>354</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.80559654771583999</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.78454202972190201</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.80967301025129101</v>
-      </c>
-      <c r="F57" s="2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.78697466687652695</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.76922568674663505</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.71986877587657205</v>
+      </c>
+      <c r="F59" s="2">
+        <v>60</v>
+      </c>
+      <c r="G59" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>61</v>
+      </c>
+      <c r="I59" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>486</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.78536780182514898</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.77093846282430001</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.535898956571221</v>
+      </c>
+      <c r="F60" s="2">
+        <v>58</v>
+      </c>
+      <c r="G60" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>110</v>
+      </c>
+      <c r="I60" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.781108630831301</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.76573334378927305</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.72927832577318896</v>
+      </c>
+      <c r="F61" s="2">
+        <v>62</v>
+      </c>
+      <c r="G61" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H61" s="2">
         <v>56</v>
       </c>
-      <c r="G57" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-4</v>
-      </c>
-      <c r="H57" s="2">
-        <v>42</v>
-      </c>
-      <c r="I57" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>306</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.77299307740358003</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.78237610330695995</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.72597001147956497</v>
-      </c>
-      <c r="F58" s="2">
-        <v>57</v>
-      </c>
-      <c r="G58" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>9</v>
-      </c>
-      <c r="H58" s="2">
-        <v>58</v>
-      </c>
-      <c r="I58" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.78536780182514898</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.77093846282430001</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.535898956571221</v>
-      </c>
-      <c r="F59" s="2">
-        <v>58</v>
-      </c>
-      <c r="G59" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H59" s="2">
-        <v>110</v>
-      </c>
-      <c r="I59" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>65</v>
-      </c>
-      <c r="B60" t="s">
-        <v>330</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.773746680094754</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.76982957864884705</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.75967294602059598</v>
-      </c>
-      <c r="F60" s="2">
-        <v>59</v>
-      </c>
-      <c r="G60" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>6</v>
-      </c>
-      <c r="H60" s="2">
-        <v>50</v>
-      </c>
-      <c r="I60" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.78697466687652695</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.76922568674663505</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.71986877587657205</v>
-      </c>
-      <c r="F61" s="2">
-        <v>60</v>
-      </c>
-      <c r="G61" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H61" s="2">
-        <v>61</v>
-      </c>
       <c r="I61" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-3</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <v>0.77959896298833797</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>0.768027507587002</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>0.70000565521837499</v>
       </c>
       <c r="F62" s="2">
         <v>61</v>
       </c>
       <c r="G62" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H62" s="2">
         <v>71</v>
       </c>
       <c r="I62" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-10</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>60</v>
+      <c r="A63" s="2">
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.781108630831301</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.76573334378927305</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.72927832577318896</v>
+        <v>276</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.77527446464467498</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.76361906902934296</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.70665035344932803</v>
       </c>
       <c r="F63" s="2">
+        <v>64</v>
+      </c>
+      <c r="G63" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>68</v>
+      </c>
+      <c r="I63" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.77482961853902499</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.76255146113269201</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.46994825298410597</v>
+      </c>
+      <c r="F64" s="2">
+        <v>65</v>
+      </c>
+      <c r="G64" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>130</v>
+      </c>
+      <c r="I64" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.77396287611196002</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.76405515131919499</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.71925243969017405</v>
+      </c>
+      <c r="F65" s="2">
+        <v>63</v>
+      </c>
+      <c r="G65" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
         <v>62</v>
       </c>
-      <c r="G63" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H63" s="2">
-        <v>56</v>
-      </c>
-      <c r="I63" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>294</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.77396287611196002</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.76405515131919499</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.71925243969017405</v>
-      </c>
-      <c r="F64" s="2">
-        <v>63</v>
-      </c>
-      <c r="G64" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H64" s="2">
-        <v>62</v>
-      </c>
-      <c r="I64" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I65" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>276</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.77527446464467498</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.76361906902934296</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.70665035344932803</v>
-      </c>
-      <c r="F65" s="2">
-        <v>64</v>
-      </c>
-      <c r="G65" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H65" s="2">
-        <v>68</v>
-      </c>
-      <c r="I65" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-6</v>
-      </c>
-    </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>63</v>
+      <c r="A66" s="2">
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.77482961853902499</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.76255146113269201</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.46994825298410597</v>
+        <v>330</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.773746680094754</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.76982957864884705</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.75967294602059598</v>
       </c>
       <c r="F66" s="2">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G66" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>6</v>
       </c>
       <c r="H66" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="I66" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-67</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>56</v>
+      <c r="A67" s="2">
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.790385759411391</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.76136882377220005</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0.79166932728011497</v>
+        <v>306</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.77299307740358003</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.78237610330695995</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.72597001147956497</v>
       </c>
       <c r="F67" s="2">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G67" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-10</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>9</v>
       </c>
       <c r="H67" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I67" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>12</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>303</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
         <v>0.76778315945542197</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>0.749100394972262</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="3">
         <v>0.72575661579475204</v>
       </c>
       <c r="F68" s="2">
         <v>67</v>
       </c>
       <c r="G68" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H68" s="2">
         <v>59</v>
       </c>
       <c r="I68" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>309</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.76499817676695703</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.74662201259530303</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.72668181662980003</v>
+      </c>
+      <c r="F69" s="2">
+        <v>69</v>
+      </c>
+      <c r="G69" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>57</v>
+      </c>
+      <c r="I69" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.76447307005748799</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.73156977605460105</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.73613443204992202</v>
+      </c>
+      <c r="F70" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-7</v>
+      </c>
+      <c r="H70" s="2">
+        <v>54</v>
+      </c>
+      <c r="I70" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.75960173642298201</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.73525689331784505</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.65032800607473695</v>
+      </c>
+      <c r="F71" s="2">
+        <v>73</v>
+      </c>
+      <c r="G71" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-3</v>
+      </c>
+      <c r="H71" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.75802850383617704</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.73917278753065097</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.71022280774369595</v>
+      </c>
+      <c r="F72" s="2">
+        <v>70</v>
+      </c>
+      <c r="G72" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>66</v>
+      </c>
+      <c r="I72" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C73" s="3">
         <v>0.753459708845021</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D73" s="3">
         <v>0.74739600150621899</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E73" s="3">
         <v>0.61827272579997405</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F73" s="2">
         <v>68</v>
       </c>
-      <c r="G69" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G73" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>4</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H73" s="2">
         <v>89</v>
       </c>
-      <c r="I69" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I73" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-17</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>309</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.76499817676695703</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.74662201259530303</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0.72668181662980003</v>
-      </c>
-      <c r="F70" s="2">
-        <v>69</v>
-      </c>
-      <c r="G70" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.74921509879285297</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.72489699863273804</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.75433100307933398</v>
+      </c>
+      <c r="F74" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-5</v>
+      </c>
+      <c r="H74" s="2">
+        <v>52</v>
+      </c>
+      <c r="I74" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.74649857587892299</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.73216395030138404</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.71069718521966097</v>
+      </c>
+      <c r="F75" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>-1</v>
       </c>
-      <c r="H70" s="2">
-        <v>57</v>
-      </c>
-      <c r="I70" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71">
+      <c r="H75" s="2">
+        <v>65</v>
+      </c>
+      <c r="I75" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.74448626439055599</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.73789462898513603</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.62093507530815795</v>
+      </c>
+      <c r="F76" s="2">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.75802850383617704</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.73917278753065097</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0.71022280774369595</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="G76" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>4</v>
+      </c>
+      <c r="H76" s="2">
+        <v>88</v>
+      </c>
+      <c r="I76" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.74151318363349195</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.73297039001775499</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.60490134795165496</v>
+      </c>
+      <c r="F77" s="2">
+        <v>74</v>
+      </c>
+      <c r="G77" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>91</v>
+      </c>
+      <c r="I77" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.74133255276418097</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.68828922012191796</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.71241818831163695</v>
+      </c>
+      <c r="F78" s="2">
+        <v>88</v>
+      </c>
+      <c r="G78" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-11</v>
+      </c>
+      <c r="H78" s="2">
+        <v>64</v>
+      </c>
+      <c r="I78" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.73994590190201204</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.73717283020580004</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.75003885635331602</v>
+      </c>
+      <c r="F79" s="2">
+        <v>72</v>
+      </c>
+      <c r="G79" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>6</v>
+      </c>
+      <c r="H79" s="2">
+        <v>53</v>
+      </c>
+      <c r="I79" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.73974644943572798</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.73139977826051406</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.720822593838499</v>
+      </c>
+      <c r="F80" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>60</v>
+      </c>
+      <c r="I80" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.73322166831538704</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.71703783284931999</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.76313875633859496</v>
+      </c>
+      <c r="F81" s="2">
+        <v>82</v>
+      </c>
+      <c r="G81" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H81" s="2">
+        <v>48</v>
+      </c>
+      <c r="I81" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.73043343768805502</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.72358793956753498</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.69334749124264605</v>
+      </c>
+      <c r="F82" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.72380619838464899</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.71763417353108006</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.53398985213080696</v>
+      </c>
+      <c r="F83" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>111</v>
+      </c>
+      <c r="I83" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.71790263402264698</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.70989535038042095</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.68626787752032503</v>
+      </c>
+      <c r="F84" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.71684842180222097</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.70614172494324901</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.51514134138798895</v>
+      </c>
+      <c r="F85" s="2">
+        <v>85</v>
+      </c>
+      <c r="G85" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>117</v>
+      </c>
+      <c r="I85" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>485</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.71533693591486602</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.71697352552939697</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.70493007611223801</v>
+      </c>
+      <c r="F86" s="2">
+        <v>83</v>
+      </c>
+      <c r="G86" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H86" s="2">
         <v>70</v>
       </c>
-      <c r="G71" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H71" s="2">
-        <v>66</v>
-      </c>
-      <c r="I71" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72">
+      <c r="I86" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.71375338046917103</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.69001517158995895</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.66907752020601396</v>
+      </c>
+      <c r="F87" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H87" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.712470061807018</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.71879063679910205</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.73362725776659499</v>
+      </c>
+      <c r="F88" s="2">
+        <v>80</v>
+      </c>
+      <c r="G88" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>7</v>
+      </c>
+      <c r="H88" s="2">
+        <v>55</v>
+      </c>
+      <c r="I88" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.71190130569892396</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.68781933269977502</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.71651789041848901</v>
+      </c>
+      <c r="F89" s="2">
+        <v>89</v>
+      </c>
+      <c r="G89" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H89" s="2">
+        <v>63</v>
+      </c>
+      <c r="I89" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.70336027535130696</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.65617227546705104</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.67157810950786101</v>
+      </c>
+      <c r="F90" s="2">
+        <v>95</v>
+      </c>
+      <c r="G90" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-6</v>
+      </c>
+      <c r="H90" s="2">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.74448626439055599</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.73789462898513603</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0.62093507530815795</v>
-      </c>
-      <c r="F72" s="2">
-        <v>71</v>
-      </c>
-      <c r="G72" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>4</v>
-      </c>
-      <c r="H72" s="2">
-        <v>88</v>
-      </c>
-      <c r="I72" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>78</v>
-      </c>
-      <c r="B73" t="s">
-        <v>321</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.73994590190201204</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.73717283020580004</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0.75003885635331602</v>
-      </c>
-      <c r="F73" s="2">
-        <v>72</v>
-      </c>
-      <c r="G73" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>6</v>
-      </c>
-      <c r="H73" s="2">
-        <v>53</v>
-      </c>
-      <c r="I73" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>70</v>
-      </c>
-      <c r="B74" t="s">
-        <v>243</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.75960173642298201</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.73525689331784505</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.65032800607473695</v>
-      </c>
-      <c r="F74" s="2">
-        <v>73</v>
-      </c>
-      <c r="G74" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-3</v>
-      </c>
-      <c r="H74" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.74151318363349195</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.73297039001775499</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0.60490134795165496</v>
-      </c>
-      <c r="F75" s="2">
-        <v>74</v>
-      </c>
-      <c r="G75" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H75" s="2">
-        <v>91</v>
-      </c>
-      <c r="I75" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>285</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.74649857587892299</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.73216395030138404</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0.71069718521966097</v>
-      </c>
-      <c r="F76" s="2">
-        <v>75</v>
-      </c>
-      <c r="G76" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H76" s="2">
-        <v>65</v>
-      </c>
-      <c r="I76" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>69</v>
-      </c>
-      <c r="B77" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.76447307005748799</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.73156977605460105</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0.73613443204992202</v>
-      </c>
-      <c r="F77" s="2">
-        <v>76</v>
-      </c>
-      <c r="G77" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-7</v>
-      </c>
-      <c r="H77" s="2">
-        <v>54</v>
-      </c>
-      <c r="I77" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>300</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.73974644943572798</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.73139977826051406</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.720822593838499</v>
-      </c>
-      <c r="F78" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H78" s="2">
-        <v>60</v>
-      </c>
-      <c r="I78" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>73</v>
-      </c>
-      <c r="B79" t="s">
-        <v>324</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.74921509879285297</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.72489699863273804</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0.75433100307933398</v>
-      </c>
-      <c r="F79" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-5</v>
-      </c>
-      <c r="H79" s="2">
-        <v>52</v>
-      </c>
-      <c r="I79" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>261</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.73043343768805502</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.72358793956753498</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0.69334749124264605</v>
-      </c>
-      <c r="F80" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H80" s="2">
-        <v>73</v>
-      </c>
-      <c r="I80" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>87</v>
-      </c>
-      <c r="B81" t="s">
-        <v>315</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.712470061807018</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.71879063679910205</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0.73362725776659499</v>
-      </c>
-      <c r="F81" s="2">
-        <v>80</v>
-      </c>
-      <c r="G81" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>7</v>
-      </c>
-      <c r="H81" s="2">
-        <v>55</v>
-      </c>
-      <c r="I81" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.72380619838464899</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.71763417353108006</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0.53398985213080696</v>
-      </c>
-      <c r="F82" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H82" s="2">
-        <v>111</v>
-      </c>
-      <c r="I82" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>80</v>
-      </c>
-      <c r="B83" t="s">
-        <v>336</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.73322166831538704</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.71703783284931999</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0.76313875633859496</v>
-      </c>
-      <c r="F83" s="2">
-        <v>82</v>
-      </c>
-      <c r="G83" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H83" s="2">
-        <v>48</v>
-      </c>
-      <c r="I83" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>270</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.71533693591486602</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.71697352552939697</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0.70493007611223801</v>
-      </c>
-      <c r="F84" s="2">
-        <v>83</v>
-      </c>
-      <c r="G84" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H84" s="2">
-        <v>70</v>
-      </c>
-      <c r="I84" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>258</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.71790263402264698</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.70989535038042095</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0.68626787752032503</v>
-      </c>
-      <c r="F85" s="2">
-        <v>84</v>
-      </c>
-      <c r="G85" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H85" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.71684842180222097</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.70614172494324901</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0.51514134138798895</v>
-      </c>
-      <c r="F86" s="2">
-        <v>85</v>
-      </c>
-      <c r="G86" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H86" s="2">
-        <v>117</v>
-      </c>
-      <c r="I86" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>91</v>
-      </c>
-      <c r="B87" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.69880239290254598</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.70473878190872496</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0.60390277848614604</v>
-      </c>
-      <c r="F87" s="2">
-        <v>86</v>
-      </c>
-      <c r="G87" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>5</v>
-      </c>
-      <c r="H87" s="2">
-        <v>92</v>
-      </c>
-      <c r="I87" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.71375338046917103</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.69001517158995895</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0.66907752020601396</v>
-      </c>
-      <c r="F88" s="2">
-        <v>87</v>
-      </c>
-      <c r="G88" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H88" s="2">
-        <v>76</v>
-      </c>
-      <c r="I88" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>77</v>
-      </c>
-      <c r="B89" t="s">
-        <v>288</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.74133255276418097</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.68828922012191796</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0.71241818831163695</v>
-      </c>
-      <c r="F89" s="2">
-        <v>88</v>
-      </c>
-      <c r="G89" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-11</v>
-      </c>
-      <c r="H89" s="2">
-        <v>64</v>
-      </c>
-      <c r="I89" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.71190130569892396</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.68781933269977502</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0.71651789041848901</v>
-      </c>
-      <c r="F90" s="2">
-        <v>89</v>
-      </c>
-      <c r="G90" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H90" s="2">
-        <v>63</v>
-      </c>
       <c r="I90" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>25</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>134</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="3">
         <v>0.70153058597592999</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="3">
         <v>0.68444338040043995</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="3">
         <v>0.52111683636208495</v>
       </c>
       <c r="F91" s="2">
         <v>90</v>
       </c>
       <c r="G91" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H91" s="2">
         <v>115</v>
       </c>
       <c r="I91" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-25</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.69880239290254598</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.70473878190872496</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.60390277848614604</v>
+      </c>
+      <c r="F92" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>5</v>
+      </c>
+      <c r="H92" s="2">
+        <v>92</v>
+      </c>
+      <c r="I92" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.68411631105408</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.66115297564581799</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.57941884947736</v>
+      </c>
+      <c r="F93" s="2">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
+      <c r="G93" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>97</v>
+      </c>
+      <c r="I93" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C94" s="3">
         <v>0.67758768590716401</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D94" s="3">
         <v>0.67075181705195497</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E94" s="3">
         <v>0.55745380987742699</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F94" s="2">
         <v>91</v>
       </c>
-      <c r="G92" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G94" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>2</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H94" s="2">
         <v>105</v>
       </c>
-      <c r="I92" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I94" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>249</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C95" s="3">
         <v>0.67558132324044595</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D95" s="3">
         <v>0.66658702925840996</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E95" s="3">
         <v>0.66743863857198504</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F95" s="2">
         <v>92</v>
       </c>
-      <c r="G93" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G95" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>2</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H95" s="2">
         <v>77</v>
       </c>
-      <c r="I93" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I95" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.68411631105408</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.66115297564581799</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0.57941884947736</v>
-      </c>
-      <c r="F94" s="2">
-        <v>93</v>
-      </c>
-      <c r="G94" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.668408008336147</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.65251265357063004</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.39765123063723101</v>
+      </c>
+      <c r="F96" s="2">
+        <v>96</v>
+      </c>
+      <c r="G96" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>-1</v>
       </c>
-      <c r="H94" s="2">
-        <v>97</v>
-      </c>
-      <c r="I94" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95">
+      <c r="H96" s="2">
+        <v>144</v>
+      </c>
+      <c r="I96" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C97" s="3">
         <v>0.66758876894332198</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D97" s="3">
         <v>0.65907196059761897</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E97" s="3">
         <v>0.64108059235742598</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F97" s="2">
         <v>94</v>
       </c>
-      <c r="G95" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G97" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>2</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H97" s="2">
         <v>84</v>
       </c>
-      <c r="I95" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I97" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>89</v>
-      </c>
-      <c r="B96" t="s">
-        <v>255</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.70336027535130696</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.65617227546705104</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0.67157810950786101</v>
-      </c>
-      <c r="F96" s="2">
-        <v>95</v>
-      </c>
-      <c r="G96" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-6</v>
-      </c>
-      <c r="H96" s="2">
-        <v>75</v>
-      </c>
-      <c r="I96" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.668408008336147</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.65251265357063004</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0.39765123063723101</v>
-      </c>
-      <c r="F97" s="2">
-        <v>96</v>
-      </c>
-      <c r="G97" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H97" s="2">
-        <v>144</v>
-      </c>
-      <c r="I97" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-49</v>
-      </c>
-    </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>264</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
         <v>0.66718594536264098</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>0.63996257764194397</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="3">
         <v>0.69690978387834501</v>
       </c>
       <c r="F98" s="2">
         <v>97</v>
       </c>
       <c r="G98" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H98" s="2">
         <v>72</v>
       </c>
       <c r="I98" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>152</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
         <v>0.66115209667985197</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>0.63748490501089605</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="3">
         <v>0.53658672452481604</v>
       </c>
       <c r="F99" s="2">
         <v>98</v>
       </c>
       <c r="G99" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H99" s="2">
         <v>109</v>
       </c>
       <c r="I99" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-11</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>180</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="3">
         <v>0.64559232973119896</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="3">
         <v>0.63647877595495705</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="3">
         <v>0.57020879131618596</v>
       </c>
       <c r="F100" s="2">
         <v>99</v>
       </c>
       <c r="G100" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H100" s="2">
         <v>100</v>
       </c>
       <c r="I100" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>105</v>
+      <c r="A101" s="2">
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.62710191086327105</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.62365606550419606</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0.64192364478814101</v>
+        <v>198</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.64508653496013602</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.613396753220256</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.59139149167947702</v>
       </c>
       <c r="F101" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G101" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>5</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
       </c>
       <c r="H101" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I101" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>22</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>240</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="3">
         <v>0.637968048238167</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="3">
         <v>0.61763315015419995</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="3">
         <v>0.64835559685114197</v>
       </c>
       <c r="F102" s="2">
         <v>101</v>
       </c>
       <c r="G102" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H102" s="2">
         <v>80</v>
       </c>
       <c r="I102" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.63776053109765596</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.60737540027438497</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.64026271892624198</v>
+      </c>
+      <c r="F103" s="2">
+        <v>104</v>
+      </c>
+      <c r="G103" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H103" s="2">
+        <v>85</v>
+      </c>
+      <c r="I103" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.63580646802417295</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.59357421855348902</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.66409010492105502</v>
+      </c>
+      <c r="F104" s="2">
+        <v>109</v>
+      </c>
+      <c r="G104" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-6</v>
+      </c>
+      <c r="H104" s="2">
+        <v>78</v>
+      </c>
+      <c r="I104" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.62908052153062699</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.59790448641874105</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.559968138729808</v>
+      </c>
+      <c r="F105" s="2">
+        <v>106</v>
+      </c>
+      <c r="G105" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H105" s="2">
+        <v>104</v>
+      </c>
+      <c r="I105" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.62710191086327105</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.62365606550419606</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.64192364478814101</v>
+      </c>
+      <c r="F106" s="2">
         <v>100</v>
       </c>
-      <c r="B103" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.64508653496013602</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0.613396753220256</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0.59139149167947702</v>
-      </c>
-      <c r="F103" s="2">
-        <v>102</v>
-      </c>
-      <c r="G103" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H103" s="2">
-        <v>94</v>
-      </c>
-      <c r="I103" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104">
+      <c r="G106" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>5</v>
+      </c>
+      <c r="H106" s="2">
+        <v>83</v>
+      </c>
+      <c r="I106" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.62342209471381504</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.57582026387254504</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.41806634139094601</v>
+      </c>
+      <c r="F107" s="2">
+        <v>113</v>
+      </c>
+      <c r="G107" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-7</v>
+      </c>
+      <c r="H107" s="2">
+        <v>142</v>
+      </c>
+      <c r="I107" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.61654773965598098</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.60556903304457199</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.41990858402791698</v>
+      </c>
+      <c r="F108" s="2">
+        <v>105</v>
+      </c>
+      <c r="G108" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H108" s="2">
+        <v>140</v>
+      </c>
+      <c r="I108" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.61411933858190604</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.58448462502119802</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.63611155068301395</v>
+      </c>
+      <c r="F109" s="2">
+        <v>111</v>
+      </c>
+      <c r="G109" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-3</v>
+      </c>
+      <c r="H109" s="2">
+        <v>87</v>
+      </c>
+      <c r="I109" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.60838397025759405</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.594704519195972</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.64639122507785596</v>
+      </c>
+      <c r="F110" s="2">
+        <v>108</v>
+      </c>
+      <c r="G110" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H110" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B111" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C111" s="3">
         <v>0.60796611728850203</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D111" s="3">
         <v>0.60969252938338703</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E111" s="3">
         <v>0.51063839794171195</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F111" s="2">
         <v>103</v>
       </c>
-      <c r="G104" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G111" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>7</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H111" s="2">
         <v>118</v>
       </c>
-      <c r="I104" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I111" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>102</v>
-      </c>
-      <c r="B105" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.63776053109765596</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0.60737540027438497</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0.64026271892624198</v>
-      </c>
-      <c r="F105" s="2">
-        <v>104</v>
-      </c>
-      <c r="G105" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H105" s="2">
-        <v>85</v>
-      </c>
-      <c r="I105" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.60439617893169895</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.59765794889978896</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.56578292213861403</v>
+      </c>
+      <c r="F112" s="2">
         <v>107</v>
       </c>
-      <c r="B106" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.61654773965598098</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0.60556903304457199</v>
-      </c>
-      <c r="E106" s="1">
-        <v>0.41990858402791698</v>
-      </c>
-      <c r="F106" s="2">
-        <v>105</v>
-      </c>
-      <c r="G106" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H106" s="2">
-        <v>140</v>
-      </c>
-      <c r="I106" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>104</v>
-      </c>
-      <c r="B107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.62908052153062699</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0.59790448641874105</v>
-      </c>
-      <c r="E107" s="1">
-        <v>0.559968138729808</v>
-      </c>
-      <c r="F107" s="2">
-        <v>106</v>
-      </c>
-      <c r="G107" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H107" s="2">
-        <v>104</v>
-      </c>
-      <c r="I107" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <v>111</v>
-      </c>
-      <c r="B108" t="s">
-        <v>177</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.60439617893169895</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0.59765794889978896</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0.56578292213861403</v>
-      </c>
-      <c r="F108" s="2">
-        <v>107</v>
-      </c>
-      <c r="G108" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="G112" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>4</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H112" s="2">
         <v>101</v>
       </c>
-      <c r="I108" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+      <c r="I112" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>234</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.60838397025759405</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0.594704519195972</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0.64639122507785596</v>
-      </c>
-      <c r="F109" s="2">
-        <v>108</v>
-      </c>
-      <c r="G109" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H109" s="2">
-        <v>82</v>
-      </c>
-      <c r="I109" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>103</v>
-      </c>
-      <c r="B110" t="s">
-        <v>246</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.63580646802417295</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0.59357421855348902</v>
-      </c>
-      <c r="E110" s="1">
-        <v>0.66409010492105502</v>
-      </c>
-      <c r="F110" s="2">
-        <v>109</v>
-      </c>
-      <c r="G110" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-6</v>
-      </c>
-      <c r="H110" s="2">
-        <v>78</v>
-      </c>
-      <c r="I110" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A111">
-        <v>113</v>
-      </c>
-      <c r="B111" t="s">
-        <v>183</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.59771082629942496</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0.58632377222090704</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0.57438298603347604</v>
-      </c>
-      <c r="F111" s="2">
-        <v>110</v>
-      </c>
-      <c r="G111" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H111" s="2">
-        <v>99</v>
-      </c>
-      <c r="I111" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A112">
-        <v>108</v>
-      </c>
-      <c r="B112" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.61411933858190604</v>
-      </c>
-      <c r="D112" s="1">
-        <v>0.58448462502119802</v>
-      </c>
-      <c r="E112" s="1">
-        <v>0.63611155068301395</v>
-      </c>
-      <c r="F112" s="2">
-        <v>111</v>
-      </c>
-      <c r="G112" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-3</v>
-      </c>
-      <c r="H112" s="2">
-        <v>87</v>
-      </c>
-      <c r="I112" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>21</v>
-      </c>
-    </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A113">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>222</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="3">
         <v>0.59877388086553396</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="3">
         <v>0.58379421084135497</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="3">
         <v>0.63747676653764496</v>
       </c>
       <c r="F113" s="2">
         <v>112</v>
       </c>
       <c r="G113" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H113" s="2">
         <v>86</v>
       </c>
       <c r="I113" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A114">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.59771082629942496</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.58632377222090704</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.57438298603347604</v>
+      </c>
+      <c r="F114" s="2">
+        <v>110</v>
+      </c>
+      <c r="G114" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H114" s="2">
+        <v>99</v>
+      </c>
+      <c r="I114" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.59720667775692005</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.56944292639856398</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.48913425162364499</v>
+      </c>
+      <c r="F115" s="2">
+        <v>117</v>
+      </c>
+      <c r="G115" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-3</v>
+      </c>
+      <c r="H115" s="2">
+        <v>123</v>
+      </c>
+      <c r="I115" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.59561911573547299</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.56964413594957597</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.44387179241012598</v>
+      </c>
+      <c r="F116" s="2">
+        <v>116</v>
+      </c>
+      <c r="G116" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>135</v>
+      </c>
+      <c r="I116" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.58630507676405597</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.56189606935123304</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.42847984259632799</v>
+      </c>
+      <c r="F117" s="2">
+        <v>118</v>
+      </c>
+      <c r="G117" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H117" s="2">
+        <v>137</v>
+      </c>
+      <c r="I117" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.58350757178788304</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.56976320229579003</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.55145908896936202</v>
+      </c>
+      <c r="F118" s="2">
+        <v>115</v>
+      </c>
+      <c r="G118" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H118" s="2">
+        <v>107</v>
+      </c>
+      <c r="I118" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.57373946289804401</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.53046592196340103</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.53283354319790999</v>
+      </c>
+      <c r="F119" s="2">
+        <v>123</v>
+      </c>
+      <c r="G119" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-5</v>
+      </c>
+      <c r="H119" s="2">
+        <v>112</v>
+      </c>
+      <c r="I119" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.56834249530103298</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.53226887454761695</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.58749621889860004</v>
+      </c>
+      <c r="F120" s="2">
+        <v>121</v>
+      </c>
+      <c r="G120" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H120" s="2">
+        <v>96</v>
+      </c>
+      <c r="I120" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.55970053415829102</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.51906663876471404</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.45630766199019601</v>
+      </c>
+      <c r="F121" s="2">
+        <v>127</v>
+      </c>
+      <c r="G121" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-7</v>
+      </c>
+      <c r="H121" s="2">
+        <v>132</v>
+      </c>
+      <c r="I121" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.558988764393899</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.53507779149974199</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.50062053336888501</v>
+      </c>
+      <c r="F122" s="2">
+        <v>120</v>
+      </c>
+      <c r="G122" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H122" s="2">
+        <v>120</v>
+      </c>
+      <c r="I122" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.55229107145956902</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.55259370316971201</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.48204984042689297</v>
+      </c>
+      <c r="F123" s="2">
+        <v>119</v>
+      </c>
+      <c r="G123" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H123" s="2">
+        <v>127</v>
+      </c>
+      <c r="I123" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.54409830430759798</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.53093778298119298</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.48179062971678299</v>
+      </c>
+      <c r="F124" s="2">
+        <v>122</v>
+      </c>
+      <c r="G124" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H124" s="2">
+        <v>128</v>
+      </c>
+      <c r="I124" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.53743236198695798</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.57014132974972798</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.55173355105312205</v>
+      </c>
+      <c r="F125" s="2">
+        <v>114</v>
+      </c>
+      <c r="G125" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>10</v>
+      </c>
+      <c r="H125" s="2">
         <v>106</v>
       </c>
-      <c r="B114" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.62342209471381504</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0.57582026387254504</v>
-      </c>
-      <c r="E114" s="1">
-        <v>0.41806634139094601</v>
-      </c>
-      <c r="F114" s="2">
+      <c r="I125" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.53711833479433602</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.52219842714072895</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.48544811751125999</v>
+      </c>
+      <c r="F126" s="2">
+        <v>126</v>
+      </c>
+      <c r="G126" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H126" s="2">
+        <v>125</v>
+      </c>
+      <c r="I126" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.53612350409960796</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.52266579239011801</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.49777739634947099</v>
+      </c>
+      <c r="F127" s="2">
+        <v>125</v>
+      </c>
+      <c r="G127" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H127" s="2">
+        <v>121</v>
+      </c>
+      <c r="I127" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
         <v>113</v>
       </c>
-      <c r="G114" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-7</v>
-      </c>
-      <c r="H114" s="2">
-        <v>142</v>
-      </c>
-      <c r="I114" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115">
+      <c r="C128" s="3">
+        <v>0.53301267289367604</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.51022038150183902</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.49444897486027101</v>
+      </c>
+      <c r="F128" s="2">
+        <v>130</v>
+      </c>
+      <c r="G128" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-3</v>
+      </c>
+      <c r="H128" s="2">
+        <v>122</v>
+      </c>
+      <c r="I128" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.531245189678483</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.51174628666227995</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.41900864555843098</v>
+      </c>
+      <c r="F129" s="2">
+        <v>129</v>
+      </c>
+      <c r="G129" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H129" s="2">
+        <v>141</v>
+      </c>
+      <c r="I129" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.52901118258366797</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.52919823261074195</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.52433196294406403</v>
+      </c>
+      <c r="F130" s="2">
         <v>124</v>
       </c>
-      <c r="B115" t="s">
-        <v>161</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.53743236198695798</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0.57014132974972798</v>
-      </c>
-      <c r="E115" s="1">
-        <v>0.55173355105312205</v>
-      </c>
-      <c r="F115" s="2">
+      <c r="G130" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>5</v>
+      </c>
+      <c r="H130" s="2">
         <v>114</v>
       </c>
-      <c r="G115" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>10</v>
-      </c>
-      <c r="H115" s="2">
-        <v>106</v>
-      </c>
-      <c r="I115" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <v>117</v>
-      </c>
-      <c r="B116" t="s">
-        <v>158</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.58350757178788304</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0.56976320229579003</v>
-      </c>
-      <c r="E116" s="1">
-        <v>0.55145908896936202</v>
-      </c>
-      <c r="F116" s="2">
-        <v>115</v>
-      </c>
-      <c r="G116" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H116" s="2">
-        <v>107</v>
-      </c>
-      <c r="I116" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>73</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.59561911573547299</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0.56964413594957597</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0.44387179241012598</v>
-      </c>
-      <c r="F117" s="2">
+      <c r="I130" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0.52815838619987499</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.48399396007475298</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.51696970516779395</v>
+      </c>
+      <c r="F131" s="2">
+        <v>135</v>
+      </c>
+      <c r="G131" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-5</v>
+      </c>
+      <c r="H131" s="2">
         <v>116</v>
       </c>
-      <c r="G117" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H117" s="2">
-        <v>135</v>
-      </c>
-      <c r="I117" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <v>114</v>
-      </c>
-      <c r="B118" t="s">
-        <v>110</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.59720667775692005</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0.56944292639856398</v>
-      </c>
-      <c r="E118" s="1">
-        <v>0.48913425162364499</v>
-      </c>
-      <c r="F118" s="2">
-        <v>117</v>
-      </c>
-      <c r="G118" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-3</v>
-      </c>
-      <c r="H118" s="2">
-        <v>123</v>
-      </c>
-      <c r="I118" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A119">
-        <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.58630507676405597</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0.56189606935123304</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0.42847984259632799</v>
-      </c>
-      <c r="F119" s="2">
-        <v>118</v>
-      </c>
-      <c r="G119" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="I131" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0.520592163246831</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.51720655152788997</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.313705781827958</v>
+      </c>
+      <c r="F132" s="2">
+        <v>128</v>
+      </c>
+      <c r="G132" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H132" s="2">
+        <v>148</v>
+      </c>
+      <c r="I132" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.514400153614333</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.49314830447579999</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.52635427151778402</v>
+      </c>
+      <c r="F133" s="2">
+        <v>134</v>
+      </c>
+      <c r="G133" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>-2</v>
       </c>
-      <c r="H119" s="2">
-        <v>137</v>
-      </c>
-      <c r="I119" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>122</v>
-      </c>
-      <c r="B120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0.55229107145956902</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0.55259370316971201</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0.48204984042689297</v>
-      </c>
-      <c r="F120" s="2">
-        <v>119</v>
-      </c>
-      <c r="G120" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H120" s="2">
-        <v>127</v>
-      </c>
-      <c r="I120" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.558988764393899</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0.53507779149974199</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0.50062053336888501</v>
-      </c>
-      <c r="F121" s="2">
-        <v>120</v>
-      </c>
-      <c r="G121" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H121" s="2">
-        <v>120</v>
-      </c>
-      <c r="I121" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A122">
-        <v>119</v>
-      </c>
-      <c r="B122" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.56834249530103298</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0.53226887454761695</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0.58749621889860004</v>
-      </c>
-      <c r="F122" s="2">
-        <v>121</v>
-      </c>
-      <c r="G122" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H122" s="2">
-        <v>96</v>
-      </c>
-      <c r="I122" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.54409830430759798</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0.53093778298119298</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0.48179062971678299</v>
-      </c>
-      <c r="F123" s="2">
-        <v>122</v>
-      </c>
-      <c r="G123" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H123" s="2">
-        <v>128</v>
-      </c>
-      <c r="I123" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A124">
-        <v>118</v>
-      </c>
-      <c r="B124" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.57373946289804401</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0.53046592196340103</v>
-      </c>
-      <c r="E124" s="1">
-        <v>0.53283354319790999</v>
-      </c>
-      <c r="F124" s="2">
-        <v>123</v>
-      </c>
-      <c r="G124" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-5</v>
-      </c>
-      <c r="H124" s="2">
-        <v>112</v>
-      </c>
-      <c r="I124" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A125">
-        <v>129</v>
-      </c>
-      <c r="B125" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.52901118258366797</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0.52919823261074195</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0.52433196294406403</v>
-      </c>
-      <c r="F125" s="2">
-        <v>124</v>
-      </c>
-      <c r="G125" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>5</v>
-      </c>
-      <c r="H125" s="2">
-        <v>114</v>
-      </c>
-      <c r="I125" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A126">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>116</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.53612350409960796</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.52266579239011801</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0.49777739634947099</v>
-      </c>
-      <c r="F126" s="2">
-        <v>125</v>
-      </c>
-      <c r="G126" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H126" s="2">
-        <v>121</v>
-      </c>
-      <c r="I126" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>104</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.53711833479433602</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0.52219842714072895</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0.48544811751125999</v>
-      </c>
-      <c r="F127" s="2">
-        <v>126</v>
-      </c>
-      <c r="G127" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H127" s="2">
-        <v>125</v>
-      </c>
-      <c r="I127" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A128">
-        <v>120</v>
-      </c>
-      <c r="B128" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.55970053415829102</v>
-      </c>
-      <c r="D128" s="1">
-        <v>0.51906663876471404</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0.45630766199019601</v>
-      </c>
-      <c r="F128" s="2">
-        <v>127</v>
-      </c>
-      <c r="G128" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-7</v>
-      </c>
-      <c r="H128" s="2">
-        <v>132</v>
-      </c>
-      <c r="I128" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A129">
-        <v>131</v>
-      </c>
-      <c r="B129" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.520592163246831</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0.51720655152788997</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0.313705781827958</v>
-      </c>
-      <c r="F129" s="2">
-        <v>128</v>
-      </c>
-      <c r="G129" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H129" s="2">
-        <v>148</v>
-      </c>
-      <c r="I129" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A130">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.531245189678483</v>
-      </c>
-      <c r="D130" s="1">
-        <v>0.51174628666227995</v>
-      </c>
-      <c r="E130" s="1">
-        <v>0.41900864555843098</v>
-      </c>
-      <c r="F130" s="2">
-        <v>129</v>
-      </c>
-      <c r="G130" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H130" s="2">
-        <v>141</v>
-      </c>
-      <c r="I130" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A131">
-        <v>127</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="H133" s="2">
         <v>113</v>
       </c>
-      <c r="C131" s="1">
-        <v>0.53301267289367604</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0.51022038150183902</v>
-      </c>
-      <c r="E131" s="1">
-        <v>0.49444897486027101</v>
-      </c>
-      <c r="F131" s="2">
-        <v>130</v>
-      </c>
-      <c r="G131" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-3</v>
-      </c>
-      <c r="H131" s="2">
-        <v>122</v>
-      </c>
-      <c r="I131" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A132">
-        <v>134</v>
-      </c>
-      <c r="B132" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.50754781720045195</v>
-      </c>
-      <c r="D132" s="1">
-        <v>0.50203324169614605</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0.425885341982913</v>
-      </c>
-      <c r="F132" s="2">
-        <v>131</v>
-      </c>
-      <c r="G132" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H132" s="2">
-        <v>138</v>
-      </c>
-      <c r="I132" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A133">
-        <v>135</v>
-      </c>
-      <c r="B133" t="s">
-        <v>170</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.50593911442444806</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0.50071153552555103</v>
-      </c>
-      <c r="E133" s="1">
-        <v>0.56117390847535498</v>
-      </c>
-      <c r="F133" s="2">
-        <v>132</v>
-      </c>
-      <c r="G133" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H133" s="2">
-        <v>103</v>
-      </c>
       <c r="I133" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>32</v>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>155</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="3">
         <v>0.51357455032589605</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="3">
         <v>0.494317783869334</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="3">
         <v>0.543047477234885</v>
       </c>
       <c r="F134" s="2">
         <v>133</v>
       </c>
       <c r="G134" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H134" s="2">
         <v>108</v>
       </c>
       <c r="I134" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A135">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.50754781720045195</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.50203324169614605</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.425885341982913</v>
+      </c>
+      <c r="F135" s="2">
+        <v>131</v>
+      </c>
+      <c r="G135" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H135" s="2">
+        <v>138</v>
+      </c>
+      <c r="I135" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.50593911442444806</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.50071153552555103</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.56117390847535498</v>
+      </c>
+      <c r="F136" s="2">
         <v>132</v>
       </c>
-      <c r="B135" t="s">
+      <c r="G136" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H136" s="2">
+        <v>103</v>
+      </c>
+      <c r="I136" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.49777446651414098</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.46731591443350001</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.48893928728286101</v>
+      </c>
+      <c r="F137" s="2">
+        <v>139</v>
+      </c>
+      <c r="G137" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-3</v>
+      </c>
+      <c r="H137" s="2">
+        <v>124</v>
+      </c>
+      <c r="I137" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.49228990817516799</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.47913231848632798</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.47167703070661499</v>
+      </c>
+      <c r="F138" s="2">
+        <v>136</v>
+      </c>
+      <c r="G138" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H138" s="2">
+        <v>129</v>
+      </c>
+      <c r="I138" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.48758056150141399</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0.46722254956994203</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.45494109525461301</v>
+      </c>
+      <c r="F139" s="2">
         <v>140</v>
       </c>
-      <c r="C135" s="1">
-        <v>0.514400153614333</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0.49314830447579999</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0.52635427151778402</v>
-      </c>
-      <c r="F135" s="2">
+      <c r="G139" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-2</v>
+      </c>
+      <c r="H139" s="2">
         <v>134</v>
       </c>
-      <c r="G135" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="I139" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.48546923501436701</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0.47766360559850002</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.37934120082380202</v>
+      </c>
+      <c r="F140" s="2">
+        <v>137</v>
+      </c>
+      <c r="G140" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H140" s="2">
+        <v>145</v>
+      </c>
+      <c r="I140" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.48470309506185699</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.46904943287997097</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0.50293502767605702</v>
+      </c>
+      <c r="F141" s="2">
+        <v>138</v>
+      </c>
+      <c r="G141" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>2</v>
+      </c>
+      <c r="H141" s="2">
+        <v>119</v>
+      </c>
+      <c r="I141" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.476339318696341</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.44764457700565602</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.34058287754153799</v>
+      </c>
+      <c r="F142" s="2">
+        <v>142</v>
+      </c>
+      <c r="G142" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H142" s="2">
+        <v>146</v>
+      </c>
+      <c r="I142" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.47023614042184297</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.46403723826002202</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.45528331936050898</v>
+      </c>
+      <c r="F143" s="2">
+        <v>141</v>
+      </c>
+      <c r="G143" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H143" s="2">
+        <v>133</v>
+      </c>
+      <c r="I143" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.46508546649058502</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.41141092108472999</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0.434109616022261</v>
+      </c>
+      <c r="F144" s="2">
+        <v>146</v>
+      </c>
+      <c r="G144" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-3</v>
+      </c>
+      <c r="H144" s="2">
+        <v>136</v>
+      </c>
+      <c r="I144" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.457319162085502</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.43938808757114001</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0.48457895380604399</v>
+      </c>
+      <c r="F145" s="2">
+        <v>143</v>
+      </c>
+      <c r="G145" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H145" s="2">
+        <v>126</v>
+      </c>
+      <c r="I145" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.44555290483904297</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0.43154872753650297</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.468608533417122</v>
+      </c>
+      <c r="F146" s="2">
+        <v>144</v>
+      </c>
+      <c r="G146" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>1</v>
+      </c>
+      <c r="H146" s="2">
+        <v>131</v>
+      </c>
+      <c r="I146" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.430290394032597</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.40990386867600997</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0.29502558772238002</v>
+      </c>
+      <c r="F147" s="2">
+        <v>147</v>
+      </c>
+      <c r="G147" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="H147" s="2">
+        <v>150</v>
+      </c>
+      <c r="I147" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0.42252543004464199</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0.39442710875614001</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.304443759295356</v>
+      </c>
+      <c r="F148" s="2">
+        <v>149</v>
+      </c>
+      <c r="G148" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>-2</v>
       </c>
-      <c r="H135" s="2">
-        <v>113</v>
-      </c>
-      <c r="I135" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A136">
-        <v>130</v>
-      </c>
-      <c r="B136" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.52815838619987499</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0.48399396007475298</v>
-      </c>
-      <c r="E136" s="1">
-        <v>0.51696970516779395</v>
-      </c>
-      <c r="F136" s="2">
-        <v>135</v>
-      </c>
-      <c r="G136" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-5</v>
-      </c>
-      <c r="H136" s="2">
-        <v>116</v>
-      </c>
-      <c r="I136" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>92</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.49228990817516799</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0.47913231848632798</v>
-      </c>
-      <c r="E137" s="1">
-        <v>0.47167703070661499</v>
-      </c>
-      <c r="F137" s="2">
-        <v>136</v>
-      </c>
-      <c r="G137" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="H148" s="2">
+        <v>149</v>
+      </c>
+      <c r="I148" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.42081804034977799</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.41468419920739502</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0.42087321247814902</v>
+      </c>
+      <c r="F149" s="2">
+        <v>145</v>
+      </c>
+      <c r="G149" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
+        <v>3</v>
+      </c>
+      <c r="H149" s="2">
+        <v>139</v>
+      </c>
+      <c r="I149" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0.39752915957404</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.40133066177537402</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0.32377177505756399</v>
+      </c>
+      <c r="F150" s="2">
+        <v>148</v>
+      </c>
+      <c r="G150" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>1</v>
       </c>
-      <c r="H137" s="2">
-        <v>129</v>
-      </c>
-      <c r="I137" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138">
-        <v>139</v>
-      </c>
-      <c r="B138" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.48546923501436701</v>
-      </c>
-      <c r="D138" s="1">
-        <v>0.47766360559850002</v>
-      </c>
-      <c r="E138" s="1">
-        <v>0.37934120082380202</v>
-      </c>
-      <c r="F138" s="2">
-        <v>137</v>
-      </c>
-      <c r="G138" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+      <c r="H150" s="2">
+        <v>147</v>
+      </c>
+      <c r="I150" s="2">
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>2</v>
       </c>
-      <c r="H138" s="2">
-        <v>145</v>
-      </c>
-      <c r="I138" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A139">
-        <v>140</v>
-      </c>
-      <c r="B139" t="s">
-        <v>122</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.48470309506185699</v>
-      </c>
-      <c r="D139" s="1">
-        <v>0.46904943287997097</v>
-      </c>
-      <c r="E139" s="1">
-        <v>0.50293502767605702</v>
-      </c>
-      <c r="F139" s="2">
-        <v>138</v>
-      </c>
-      <c r="G139" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>2</v>
-      </c>
-      <c r="H139" s="2">
-        <v>119</v>
-      </c>
-      <c r="I139" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140">
-        <v>136</v>
-      </c>
-      <c r="B140" t="s">
-        <v>107</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.49777446651414098</v>
-      </c>
-      <c r="D140" s="1">
-        <v>0.46731591443350001</v>
-      </c>
-      <c r="E140" s="1">
-        <v>0.48893928728286101</v>
-      </c>
-      <c r="F140" s="2">
-        <v>139</v>
-      </c>
-      <c r="G140" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-3</v>
-      </c>
-      <c r="H140" s="2">
-        <v>124</v>
-      </c>
-      <c r="I140" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A141">
-        <v>138</v>
-      </c>
-      <c r="B141" t="s">
-        <v>76</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0.48758056150141399</v>
-      </c>
-      <c r="D141" s="1">
-        <v>0.46722254956994203</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0.45494109525461301</v>
-      </c>
-      <c r="F141" s="2">
-        <v>140</v>
-      </c>
-      <c r="G141" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H141" s="2">
-        <v>134</v>
-      </c>
-      <c r="I141" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A142">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>79</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.47023614042184297</v>
-      </c>
-      <c r="D142" s="1">
-        <v>0.46403723826002202</v>
-      </c>
-      <c r="E142" s="1">
-        <v>0.45528331936050898</v>
-      </c>
-      <c r="F142" s="2">
-        <v>141</v>
-      </c>
-      <c r="G142" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H142" s="2">
-        <v>133</v>
-      </c>
-      <c r="I142" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>39</v>
-      </c>
-      <c r="C143" s="1">
-        <v>0.476339318696341</v>
-      </c>
-      <c r="D143" s="1">
-        <v>0.44764457700565602</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0.34058287754153799</v>
-      </c>
-      <c r="F143" s="2">
-        <v>142</v>
-      </c>
-      <c r="G143" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H143" s="2">
-        <v>146</v>
-      </c>
-      <c r="I143" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A144">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>101</v>
-      </c>
-      <c r="C144" s="1">
-        <v>0.457319162085502</v>
-      </c>
-      <c r="D144" s="1">
-        <v>0.43938808757114001</v>
-      </c>
-      <c r="E144" s="1">
-        <v>0.48457895380604399</v>
-      </c>
-      <c r="F144" s="2">
-        <v>143</v>
-      </c>
-      <c r="G144" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H144" s="2">
-        <v>126</v>
-      </c>
-      <c r="I144" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A145">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" s="1">
-        <v>0.44555290483904297</v>
-      </c>
-      <c r="D145" s="1">
-        <v>0.43154872753650297</v>
-      </c>
-      <c r="E145" s="1">
-        <v>0.468608533417122</v>
-      </c>
-      <c r="F145" s="2">
-        <v>144</v>
-      </c>
-      <c r="G145" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H145" s="2">
-        <v>131</v>
-      </c>
-      <c r="I145" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A146">
-        <v>148</v>
-      </c>
-      <c r="B146" t="s">
-        <v>61</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.42081804034977799</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0.41468419920739502</v>
-      </c>
-      <c r="E146" s="1">
-        <v>0.42087321247814902</v>
-      </c>
-      <c r="F146" s="2">
-        <v>145</v>
-      </c>
-      <c r="G146" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>3</v>
-      </c>
-      <c r="H146" s="2">
-        <v>139</v>
-      </c>
-      <c r="I146" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A147">
-        <v>143</v>
-      </c>
-      <c r="B147" t="s">
-        <v>70</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0.46508546649058502</v>
-      </c>
-      <c r="D147" s="1">
-        <v>0.41141092108472999</v>
-      </c>
-      <c r="E147" s="1">
-        <v>0.434109616022261</v>
-      </c>
-      <c r="F147" s="2">
-        <v>146</v>
-      </c>
-      <c r="G147" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-3</v>
-      </c>
-      <c r="H147" s="2">
-        <v>136</v>
-      </c>
-      <c r="I147" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A148">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148" s="1">
-        <v>0.430290394032597</v>
-      </c>
-      <c r="D148" s="1">
-        <v>0.40990386867600997</v>
-      </c>
-      <c r="E148" s="1">
-        <v>0.29502558772238002</v>
-      </c>
-      <c r="F148" s="2">
-        <v>147</v>
-      </c>
-      <c r="G148" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-1</v>
-      </c>
-      <c r="H148" s="2">
-        <v>150</v>
-      </c>
-      <c r="I148" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A149">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>36</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0.39752915957404</v>
-      </c>
-      <c r="D149" s="1">
-        <v>0.40133066177537402</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0.32377177505756399</v>
-      </c>
-      <c r="F149" s="2">
-        <v>148</v>
-      </c>
-      <c r="G149" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>1</v>
-      </c>
-      <c r="H149" s="2">
-        <v>147</v>
-      </c>
-      <c r="I149" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A150">
-        <v>147</v>
-      </c>
-      <c r="B150" t="s">
-        <v>30</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0.42252543004464199</v>
-      </c>
-      <c r="D150" s="1">
-        <v>0.39442710875614001</v>
-      </c>
-      <c r="E150" s="1">
-        <v>0.304443759295356</v>
-      </c>
-      <c r="F150" s="2">
-        <v>149</v>
-      </c>
-      <c r="G150" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
-        <v>-2</v>
-      </c>
-      <c r="H150" s="2">
-        <v>149</v>
-      </c>
-      <c r="I150" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
-        <v>-2</v>
-      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="3">
         <v>0.39087642827969399</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="3">
         <v>0.37264700914586102</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="3">
         <v>0.17936212015646399</v>
       </c>
       <c r="F151" s="2">
         <v>150</v>
       </c>
       <c r="G151" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H151" s="2">
         <v>151</v>
       </c>
       <c r="I151" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A152">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>49</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="3">
         <v>0.39025815060741798</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="3">
         <v>0.372015081782331</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="3">
         <v>0.398537718396691</v>
       </c>
       <c r="F152" s="2">
         <v>151</v>
       </c>
       <c r="G152" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank2]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</f>
         <v>0</v>
       </c>
       <c r="H152" s="2">
         <v>143</v>
       </c>
       <c r="I152" s="2">
-        <f>Tabla1[[#This Row],[Rank1]]-Tabla1[[#This Row],[Rank3]]</f>
+        <f>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E152">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19604,7 +19618,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -19612,7 +19626,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{E2588F9D-3DEC-4CF3-ABDF-61F306FE5953}">
+          <x14:cfRule type="iconSet" priority="5" id="{E2588F9D-3DEC-4CF3-ABDF-61F306FE5953}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/Resultados/resultados_1.xlsx
+++ b/Resultados/resultados_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shali\Desktop\FACULTAD\Econometria\Trabajo práctico\econometria2024\Resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shali\Desktop\FACULTAD\Econometria\Trabajo practico\econometria2024\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3401B54-9D13-43D9-B037-6087E7548AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDCFFB-B7E8-40C3-8B0E-869E55D2063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="21585" windowHeight="13680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="353" yWindow="1058" windowWidth="21585" windowHeight="13680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1555,9 +1555,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1583,6 +1580,9 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1602,17 +1602,17 @@
     <sortCondition descending="1" ref="C1:C152"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="8" xr3:uid="{BFB3AE65-0AAD-49A1-B965-720295D6811F}" name="Rank" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{BFB3AE65-0AAD-49A1-B965-720295D6811F}" name="Rank" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{BC900A70-1EE3-4ADC-A363-E3860763F064}" name="Pais"/>
-    <tableColumn id="4" xr3:uid="{BBF06864-8FFD-4CF9-B357-00EB01F9ABEB}" name="IDH" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F303FC8E-3620-4081-A306-7BF38C73DC22}" name="IDH2" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B4FB6DD5-D5AC-4BFF-9403-7B6D0502B460}" name="IDH3" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{5967E721-9A5A-4CD3-AF07-B1DFCF513907}" name="Rank2" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{7A474A85-F8B6-4B87-8779-C588C74E090C}" name="2)+/-" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{BBF06864-8FFD-4CF9-B357-00EB01F9ABEB}" name="IDH" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F303FC8E-3620-4081-A306-7BF38C73DC22}" name="IDH2" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B4FB6DD5-D5AC-4BFF-9403-7B6D0502B460}" name="IDH3" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{5967E721-9A5A-4CD3-AF07-B1DFCF513907}" name="Rank2" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{7A474A85-F8B6-4B87-8779-C588C74E090C}" name="2)+/-" dataDxfId="2">
       <calculatedColumnFormula>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A41548A-4B50-409F-9C94-02A2052FF704}" name="Rank3" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{AD77FF69-966D-4D9E-8661-5F5D3AB756F7}" name="3)+/-" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{5A41548A-4B50-409F-9C94-02A2052FF704}" name="Rank3" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{AD77FF69-966D-4D9E-8661-5F5D3AB756F7}" name="3)+/-" dataDxfId="0">
       <calculatedColumnFormula>Tabla1[[#This Row],[Rank]]-Tabla1[[#This Row],[Rank3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14877,8 +14877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE07D-B89C-4A07-883C-6514B50FE974}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
